--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -49,13 +49,7 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
-  </si>
-  <si>
-    <t>22 Mar -- 28 Mar 2020</t>
-  </si>
-  <si>
-    <t>29 Mar -- 04 Apr 2020</t>
+    <t>2021-01-02</t>
   </si>
   <si>
     <t>05 Apr -- 11 Apr 2020</t>
@@ -176,6 +170,12 @@
   </si>
   <si>
     <t>03 Jan -- 09 Jan 2021</t>
+  </si>
+  <si>
+    <t>10 Jan -- 16 Jan 2021</t>
+  </si>
+  <si>
+    <t>17 Jan -- 23 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -585,10 +585,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>347.43</v>
+        <v>2087.86</v>
       </c>
       <c r="D2">
-        <v>347.43</v>
+        <v>2087.86</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -597,13 +597,13 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>0.79</v>
       </c>
       <c r="H2">
-        <v>47.62</v>
+        <v>35.26</v>
       </c>
       <c r="I2">
-        <v>1241.97</v>
+        <v>920.6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -614,10 +614,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1154.86</v>
+        <v>2148.43</v>
       </c>
       <c r="D3">
-        <v>1154.86</v>
+        <v>2148.43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>2087.86</v>
+        <v>2202.86</v>
       </c>
       <c r="D4">
-        <v>2087.86</v>
+        <v>2202.86</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>2148.43</v>
+        <v>1933.57</v>
       </c>
       <c r="D5">
-        <v>2148.43</v>
+        <v>1933.57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>2202.86</v>
+        <v>1753.71</v>
       </c>
       <c r="D6">
-        <v>2202.86</v>
+        <v>1753.71</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -694,10 +694,10 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>1933.57</v>
+        <v>1426.86</v>
       </c>
       <c r="D7">
-        <v>1933.57</v>
+        <v>1426.86</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -714,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>1753.71</v>
+        <v>1220.57</v>
       </c>
       <c r="D8">
-        <v>1753.71</v>
+        <v>1220.57</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -734,10 +734,10 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>1426.86</v>
+        <v>946.14</v>
       </c>
       <c r="D9">
-        <v>1426.86</v>
+        <v>946.14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1220.57</v>
+        <v>873.71</v>
       </c>
       <c r="D10">
-        <v>1220.57</v>
+        <v>873.71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>946.14</v>
+        <v>744.29</v>
       </c>
       <c r="D11">
-        <v>946.14</v>
+        <v>744.29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>873.71</v>
+        <v>602.14</v>
       </c>
       <c r="D12">
-        <v>873.71</v>
+        <v>602.14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -814,10 +814,10 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>744.29</v>
+        <v>565.86</v>
       </c>
       <c r="D13">
-        <v>744.29</v>
+        <v>565.86</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>602.14</v>
+        <v>524.14</v>
       </c>
       <c r="D14">
-        <v>602.14</v>
+        <v>524.14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>565.86</v>
+        <v>748.86</v>
       </c>
       <c r="D15">
-        <v>565.86</v>
+        <v>748.86</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>524.14</v>
+        <v>786.29</v>
       </c>
       <c r="D16">
-        <v>524.14</v>
+        <v>786.29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>748.86</v>
+        <v>922</v>
       </c>
       <c r="D17">
-        <v>748.86</v>
+        <v>922</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -914,10 +914,10 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>786.29</v>
+        <v>1140.43</v>
       </c>
       <c r="D18">
-        <v>786.29</v>
+        <v>1140.43</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -934,10 +934,10 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>922</v>
+        <v>1038.43</v>
       </c>
       <c r="D19">
-        <v>922</v>
+        <v>1038.43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -954,13 +954,13 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>1140.43</v>
+        <v>1007.43</v>
       </c>
       <c r="D20">
-        <v>721.04</v>
+        <v>1007.43</v>
       </c>
       <c r="E20">
-        <v>419.39</v>
+        <v>0</v>
       </c>
       <c r="F20" t="s">
         <v>54</v>
@@ -974,13 +974,13 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>1038.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D21">
-        <v>778.1</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E21">
-        <v>260.33</v>
+        <v>0</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -994,13 +994,13 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>1007.43</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D22">
-        <v>965.83</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E22">
-        <v>41.59</v>
+        <v>0</v>
       </c>
       <c r="F22" t="s">
         <v>54</v>
@@ -1014,13 +1014,13 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>973.4299999999999</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D23">
-        <v>1171.47</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E23">
-        <v>198.05</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
         <v>54</v>
@@ -1034,13 +1034,13 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>894.5700000000001</v>
+        <v>733.14</v>
       </c>
       <c r="D24">
-        <v>820.91</v>
+        <v>733.14</v>
       </c>
       <c r="E24">
-        <v>73.66</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
         <v>54</v>
@@ -1054,13 +1054,13 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>846.4299999999999</v>
+        <v>797.86</v>
       </c>
       <c r="D25">
-        <v>982.09</v>
+        <v>797.86</v>
       </c>
       <c r="E25">
-        <v>135.66</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
         <v>54</v>
@@ -1074,13 +1074,13 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>733.14</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D26">
-        <v>978.13</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E26">
-        <v>244.98</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>54</v>
@@ -1094,13 +1094,13 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>797.86</v>
+        <v>702.14</v>
       </c>
       <c r="D27">
-        <v>902.23</v>
+        <v>702.14</v>
       </c>
       <c r="E27">
-        <v>104.37</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
         <v>54</v>
@@ -1114,13 +1114,13 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>766.4299999999999</v>
+        <v>714.29</v>
       </c>
       <c r="D28">
-        <v>797.8</v>
+        <v>714.29</v>
       </c>
       <c r="E28">
-        <v>31.37</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -1134,13 +1134,13 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>702.14</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D29">
-        <v>805.8</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E29">
-        <v>103.66</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
         <v>54</v>
@@ -1154,13 +1154,13 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>714.29</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D30">
-        <v>780.15</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E30">
-        <v>65.86</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
         <v>54</v>
@@ -1174,13 +1174,13 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>717.4299999999999</v>
+        <v>819</v>
       </c>
       <c r="D31">
-        <v>812.95</v>
+        <v>819</v>
       </c>
       <c r="E31">
-        <v>95.52</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
         <v>54</v>
@@ -1194,19 +1194,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>821.5700000000001</v>
+        <v>994.86</v>
       </c>
       <c r="D32">
-        <v>807.38</v>
+        <v>994.86</v>
       </c>
       <c r="E32">
-        <v>14.19</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1214,19 +1214,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>819</v>
+        <v>1087.29</v>
       </c>
       <c r="D33">
-        <v>731.47</v>
+        <v>1087.29</v>
       </c>
       <c r="E33">
-        <v>87.53</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1234,19 +1234,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>994.86</v>
+        <v>1466.29</v>
       </c>
       <c r="D34">
-        <v>828.2</v>
+        <v>1466.29</v>
       </c>
       <c r="E34">
-        <v>166.65</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1254,19 +1254,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>1087.29</v>
+        <v>1447.14</v>
       </c>
       <c r="D35">
-        <v>1015.86</v>
+        <v>1447.14</v>
       </c>
       <c r="E35">
-        <v>71.43000000000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1274,19 +1274,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>1466.29</v>
+        <v>2150.29</v>
       </c>
       <c r="D36">
-        <v>824.6799999999999</v>
+        <v>2150.29</v>
       </c>
       <c r="E36">
-        <v>641.61</v>
+        <v>0</v>
       </c>
       <c r="F36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1294,19 +1294,19 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>1447.14</v>
+        <v>2383.14</v>
       </c>
       <c r="D37">
-        <v>977.7</v>
+        <v>2383.14</v>
       </c>
       <c r="E37">
-        <v>469.44</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1314,19 +1314,19 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>2150.29</v>
+        <v>2607.86</v>
       </c>
       <c r="D38">
-        <v>955.4</v>
+        <v>2607.86</v>
       </c>
       <c r="E38">
-        <v>1194.89</v>
+        <v>0</v>
       </c>
       <c r="F38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1334,19 +1334,19 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>2383.14</v>
+        <v>2250</v>
       </c>
       <c r="D39">
-        <v>1459.97</v>
+        <v>1973.55</v>
       </c>
       <c r="E39">
-        <v>923.1799999999999</v>
+        <v>276.45</v>
       </c>
       <c r="F39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1354,71 +1354,47 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>2607.86</v>
+        <v>2611</v>
       </c>
       <c r="D40">
-        <v>1365.89</v>
+        <v>1786.4</v>
       </c>
       <c r="E40">
-        <v>1241.97</v>
+        <v>824.6</v>
       </c>
       <c r="F40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>51</v>
       </c>
-      <c r="C41">
-        <v>2250</v>
-      </c>
       <c r="D41">
-        <v>1594.34</v>
-      </c>
-      <c r="E41">
-        <v>655.66</v>
+        <v>1748.56</v>
       </c>
       <c r="F41" t="s">
         <v>54</v>
       </c>
-      <c r="J41">
-        <v>655.66</v>
-      </c>
-      <c r="K41">
-        <v>29.14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
         <v>52</v>
       </c>
-      <c r="C42">
-        <v>2611</v>
-      </c>
       <c r="D42">
-        <v>1713.91</v>
-      </c>
-      <c r="E42">
-        <v>897.09</v>
+        <v>1712.45</v>
       </c>
       <c r="F42" t="s">
         <v>54</v>
       </c>
-      <c r="J42">
-        <v>776.38</v>
-      </c>
-      <c r="K42">
-        <v>31.75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1426,7 +1402,7 @@
         <v>53</v>
       </c>
       <c r="D43">
-        <v>1928.22</v>
+        <v>1743.68</v>
       </c>
       <c r="F43" t="s">
         <v>54</v>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,9 +49,24 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
+    <t>2021-01-09</t>
+  </si>
+  <si>
+    <t>22 Mar -- 28 Mar 2020</t>
+  </si>
+  <si>
+    <t>29 Mar -- 04 Apr 2020</t>
+  </si>
+  <si>
     <t>05 Apr -- 11 Apr 2020</t>
   </si>
   <si>
@@ -176,6 +191,9 @@
   </si>
   <si>
     <t>17 Jan -- 23 Jan 2021</t>
+  </si>
+  <si>
+    <t>24 Jan -- 30 Jan 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -536,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,28 +600,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2087.86</v>
+        <v>347.43</v>
       </c>
       <c r="D2">
-        <v>2087.86</v>
+        <v>347.43</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="H2">
-        <v>35.26</v>
+        <v>47.62</v>
       </c>
       <c r="I2">
-        <v>920.6</v>
+        <v>1241.97</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,19 +629,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2148.43</v>
+        <v>1154.86</v>
       </c>
       <c r="D3">
-        <v>2148.43</v>
+        <v>1154.86</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,19 +649,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2202.86</v>
+        <v>2087.86</v>
       </c>
       <c r="D4">
-        <v>2202.86</v>
+        <v>2087.86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,19 +669,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1933.57</v>
+        <v>2148.43</v>
       </c>
       <c r="D5">
-        <v>1933.57</v>
+        <v>2148.43</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,19 +689,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1753.71</v>
+        <v>2202.86</v>
       </c>
       <c r="D6">
-        <v>1753.71</v>
+        <v>2202.86</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,19 +709,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>1426.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D7">
-        <v>1426.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,19 +729,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1220.57</v>
+        <v>1753.71</v>
       </c>
       <c r="D8">
-        <v>1220.57</v>
+        <v>1753.71</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,19 +749,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>946.14</v>
+        <v>1426.86</v>
       </c>
       <c r="D9">
-        <v>946.14</v>
+        <v>1426.86</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,19 +769,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>873.71</v>
+        <v>1220.57</v>
       </c>
       <c r="D10">
-        <v>873.71</v>
+        <v>1220.57</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -771,19 +789,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>744.29</v>
+        <v>946.14</v>
       </c>
       <c r="D11">
-        <v>744.29</v>
+        <v>946.14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -791,19 +809,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>602.14</v>
+        <v>873.71</v>
       </c>
       <c r="D12">
-        <v>602.14</v>
+        <v>873.71</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,19 +829,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>565.86</v>
+        <v>744.29</v>
       </c>
       <c r="D13">
-        <v>565.86</v>
+        <v>744.29</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -831,19 +849,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>524.14</v>
+        <v>602.14</v>
       </c>
       <c r="D14">
-        <v>524.14</v>
+        <v>602.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -851,19 +869,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>748.86</v>
+        <v>565.86</v>
       </c>
       <c r="D15">
-        <v>748.86</v>
+        <v>565.86</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,19 +889,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>786.29</v>
+        <v>524.14</v>
       </c>
       <c r="D16">
-        <v>786.29</v>
+        <v>524.14</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,19 +909,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>922</v>
+        <v>748.86</v>
       </c>
       <c r="D17">
-        <v>922</v>
+        <v>748.86</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -911,19 +929,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1140.43</v>
+        <v>786.29</v>
       </c>
       <c r="D18">
-        <v>1140.43</v>
+        <v>786.29</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -931,19 +949,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>1038.43</v>
+        <v>922</v>
       </c>
       <c r="D19">
-        <v>1038.43</v>
+        <v>922</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,19 +969,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>1007.43</v>
+        <v>1140.43</v>
       </c>
       <c r="D20">
-        <v>1007.43</v>
+        <v>721.04</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,19 +989,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>973.4299999999999</v>
+        <v>1038.43</v>
       </c>
       <c r="D21">
-        <v>973.4299999999999</v>
+        <v>778.1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,19 +1009,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>894.5700000000001</v>
+        <v>1007.43</v>
       </c>
       <c r="D22">
-        <v>894.5700000000001</v>
+        <v>965.83</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1011,19 +1029,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>846.4299999999999</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D23">
-        <v>846.4299999999999</v>
+        <v>1171.47</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,19 +1049,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>733.14</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D24">
-        <v>733.14</v>
+        <v>820.91</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,19 +1069,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>797.86</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D25">
-        <v>797.86</v>
+        <v>982.09</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,19 +1089,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>766.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D26">
-        <v>766.4299999999999</v>
+        <v>978.13</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,19 +1109,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>702.14</v>
+        <v>797.86</v>
       </c>
       <c r="D27">
-        <v>702.14</v>
+        <v>902.23</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,19 +1129,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>714.29</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D28">
-        <v>714.29</v>
+        <v>797.8</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,19 +1149,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>717.4299999999999</v>
+        <v>702.14</v>
       </c>
       <c r="D29">
-        <v>717.4299999999999</v>
+        <v>805.8</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1151,19 +1169,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>821.5700000000001</v>
+        <v>714.29</v>
       </c>
       <c r="D30">
-        <v>821.5700000000001</v>
+        <v>780.15</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,19 +1189,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>819</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D31">
-        <v>819</v>
+        <v>812.95</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,221 +1209,482 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
+        <v>821.5700000000001</v>
+      </c>
+      <c r="D32">
+        <v>807.38</v>
+      </c>
+      <c r="E32">
+        <v>14.19</v>
+      </c>
+      <c r="F32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>819</v>
+      </c>
+      <c r="D33">
+        <v>731.47</v>
+      </c>
+      <c r="E33">
+        <v>87.53</v>
+      </c>
+      <c r="F33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
         <v>994.86</v>
       </c>
-      <c r="D32">
-        <v>994.86</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="D34">
+        <v>828.2</v>
+      </c>
+      <c r="E34">
+        <v>166.65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>1087.29</v>
+      </c>
+      <c r="D35">
+        <v>1015.86</v>
+      </c>
+      <c r="E35">
+        <v>71.43000000000001</v>
+      </c>
+      <c r="F35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>1466.29</v>
+      </c>
+      <c r="D36">
+        <v>824.6799999999999</v>
+      </c>
+      <c r="E36">
+        <v>641.61</v>
+      </c>
+      <c r="F36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>1447.14</v>
+      </c>
+      <c r="D37">
+        <v>977.7</v>
+      </c>
+      <c r="E37">
+        <v>469.44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>2150.29</v>
+      </c>
+      <c r="D38">
+        <v>955.4</v>
+      </c>
+      <c r="E38">
+        <v>1194.89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>2383.14</v>
+      </c>
+      <c r="D39">
+        <v>1459.97</v>
+      </c>
+      <c r="E39">
+        <v>923.1799999999999</v>
+      </c>
+      <c r="F39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <v>2607.86</v>
+      </c>
+      <c r="D40">
+        <v>1365.89</v>
+      </c>
+      <c r="E40">
+        <v>1241.97</v>
+      </c>
+      <c r="F40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>1087.29</v>
-      </c>
-      <c r="D33">
-        <v>1087.29</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>1466.29</v>
-      </c>
-      <c r="D34">
-        <v>1466.29</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>1447.14</v>
-      </c>
-      <c r="D35">
-        <v>1447.14</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2150.29</v>
-      </c>
-      <c r="D36">
-        <v>2150.29</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2383.14</v>
-      </c>
-      <c r="D37">
-        <v>2383.14</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2607.86</v>
-      </c>
-      <c r="D38">
-        <v>2607.86</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39">
-        <v>2250</v>
-      </c>
-      <c r="D39">
-        <v>1973.55</v>
-      </c>
-      <c r="E39">
-        <v>276.45</v>
-      </c>
-      <c r="F39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>2611</v>
-      </c>
-      <c r="D40">
-        <v>1786.4</v>
-      </c>
-      <c r="E40">
-        <v>824.6</v>
-      </c>
-      <c r="F40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
+      <c r="C41">
+        <v>2243.29</v>
       </c>
       <c r="D41">
-        <v>1748.56</v>
+        <v>1594.34</v>
+      </c>
+      <c r="E41">
+        <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J41">
+        <v>648.95</v>
+      </c>
+      <c r="K41">
+        <v>28.93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>2604.14</v>
       </c>
       <c r="D42">
-        <v>1712.45</v>
+        <v>1713.91</v>
+      </c>
+      <c r="E42">
+        <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="J42">
+        <v>769.59</v>
+      </c>
+      <c r="K42">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>3174.14</v>
       </c>
       <c r="D43">
-        <v>1743.68</v>
+        <v>1928.22</v>
+      </c>
+      <c r="E43">
+        <v>1245.92</v>
       </c>
       <c r="F43" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="J43">
+        <v>928.37</v>
+      </c>
+      <c r="K43">
+        <v>34.12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>2604.14</v>
+      </c>
+      <c r="D44">
+        <v>1717.69</v>
+      </c>
+      <c r="E44">
+        <v>886.46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44">
+        <v>1.51</v>
+      </c>
+      <c r="H44">
+        <v>52.29</v>
+      </c>
+      <c r="I44">
+        <v>1173.04</v>
+      </c>
+      <c r="J44">
+        <v>917.89</v>
+      </c>
+      <c r="K44">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>3174.14</v>
+      </c>
+      <c r="D45">
+        <v>1922.89</v>
+      </c>
+      <c r="E45">
+        <v>1251.26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>60</v>
+      </c>
+      <c r="J45">
+        <v>984.5599999999999</v>
+      </c>
+      <c r="K45">
+        <v>35.17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>3333.57</v>
+      </c>
+      <c r="D46">
+        <v>2043.79</v>
+      </c>
+      <c r="E46">
+        <v>1289.78</v>
+      </c>
+      <c r="F46" t="s">
+        <v>60</v>
+      </c>
+      <c r="J46">
+        <v>1035.43</v>
+      </c>
+      <c r="K46">
+        <v>35.75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>3174.14</v>
+      </c>
+      <c r="D47">
+        <v>1703.86</v>
+      </c>
+      <c r="E47">
+        <v>1470.28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47">
+        <v>0.79</v>
+      </c>
+      <c r="H47">
+        <v>35.26</v>
+      </c>
+      <c r="I47">
+        <v>920.6</v>
+      </c>
+      <c r="J47">
+        <v>1097.55</v>
+      </c>
+      <c r="K47">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48">
+        <v>3333.57</v>
+      </c>
+      <c r="D48">
+        <v>1711.93</v>
+      </c>
+      <c r="E48">
+        <v>1621.65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>60</v>
+      </c>
+      <c r="J48">
+        <v>1163.06</v>
+      </c>
+      <c r="K48">
+        <v>38.69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49">
+        <v>1742.46</v>
+      </c>
+      <c r="F49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50">
+        <v>3333.57</v>
+      </c>
+      <c r="D50">
+        <v>2118.92</v>
+      </c>
+      <c r="E50">
+        <v>1214.65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50">
+        <v>1.66</v>
+      </c>
+      <c r="H50">
+        <v>53.65</v>
+      </c>
+      <c r="I50">
+        <v>1703.05</v>
+      </c>
+      <c r="J50">
+        <v>1168.8</v>
+      </c>
+      <c r="K50">
+        <v>38.44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51">
+        <v>2211.75</v>
+      </c>
+      <c r="F51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52">
+        <v>2249.59</v>
+      </c>
+      <c r="F52" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -554,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1687,6 +1687,60 @@
         <v>60</v>
       </c>
     </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>3333.57</v>
+      </c>
+      <c r="D53">
+        <v>2118.92</v>
+      </c>
+      <c r="E53">
+        <v>1214.65</v>
+      </c>
+      <c r="F53" t="s">
+        <v>60</v>
+      </c>
+      <c r="J53">
+        <v>1173.38</v>
+      </c>
+      <c r="K53">
+        <v>38.24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>2211.75</v>
+      </c>
+      <c r="F54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>2249.59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>24 Jan -- 30 Jan 2021</t>
+  </si>
+  <si>
+    <t>31 Jan -- 06 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>347.43</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.82</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1154.86</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>2087.86</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>2148.43</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>2202.86</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>1933.57</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>1753.71</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>1426.86</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1220.57</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>946.14</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>873.71</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>744.29</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>602.14</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>565.86</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>524.14</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>748.86</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>786.29</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>922</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1140.43</v>
@@ -981,7 +987,7 @@
         <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>1038.43</v>
@@ -1001,7 +1007,7 @@
         <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>1007.43</v>
@@ -1021,7 +1027,7 @@
         <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>973.4299999999999</v>
@@ -1041,7 +1047,7 @@
         <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>894.5700000000001</v>
@@ -1061,7 +1067,7 @@
         <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>846.4299999999999</v>
@@ -1081,7 +1087,7 @@
         <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>733.14</v>
@@ -1101,7 +1107,7 @@
         <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>797.86</v>
@@ -1121,7 +1127,7 @@
         <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>766.4299999999999</v>
@@ -1141,7 +1147,7 @@
         <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>702.14</v>
@@ -1161,7 +1167,7 @@
         <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>714.29</v>
@@ -1181,7 +1187,7 @@
         <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>717.4299999999999</v>
@@ -1201,7 +1207,7 @@
         <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>821.5700000000001</v>
@@ -1221,7 +1227,7 @@
         <v>14.19</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>819</v>
@@ -1241,7 +1247,7 @@
         <v>87.53</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>994.86</v>
@@ -1261,7 +1267,7 @@
         <v>166.65</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>1087.29</v>
@@ -1281,7 +1287,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>1466.29</v>
@@ -1301,7 +1307,7 @@
         <v>641.61</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>1447.14</v>
@@ -1321,7 +1327,7 @@
         <v>469.44</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>2150.29</v>
@@ -1341,7 +1347,7 @@
         <v>1194.89</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>2383.14</v>
@@ -1361,7 +1367,7 @@
         <v>923.1799999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>2607.86</v>
@@ -1381,7 +1387,7 @@
         <v>1241.97</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1389,7 +1395,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>2243.29</v>
@@ -1401,7 +1407,7 @@
         <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J41">
         <v>648.95</v>
@@ -1415,7 +1421,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>2604.14</v>
@@ -1427,7 +1433,7 @@
         <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J42">
         <v>769.59</v>
@@ -1441,25 +1447,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D43">
         <v>1928.22</v>
       </c>
       <c r="E43">
-        <v>1245.92</v>
+        <v>1244.64</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J43">
-        <v>928.37</v>
+        <v>927.9400000000001</v>
       </c>
       <c r="K43">
-        <v>34.12</v>
+        <v>34.11</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>2604.14</v>
@@ -1479,7 +1485,7 @@
         <v>886.46</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>1.51</v>
@@ -1491,7 +1497,7 @@
         <v>1173.04</v>
       </c>
       <c r="J44">
-        <v>917.89</v>
+        <v>917.5700000000001</v>
       </c>
       <c r="K44">
         <v>34.1</v>
@@ -1502,25 +1508,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D45">
         <v>1922.89</v>
       </c>
       <c r="E45">
-        <v>1251.26</v>
+        <v>1249.97</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J45">
-        <v>984.5599999999999</v>
+        <v>984.05</v>
       </c>
       <c r="K45">
-        <v>35.17</v>
+        <v>35.16</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1528,7 +1534,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
         <v>3333.57</v>
@@ -1540,13 +1546,13 @@
         <v>1289.78</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>1035.43</v>
+        <v>1035</v>
       </c>
       <c r="K46">
-        <v>35.75</v>
+        <v>35.74</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1554,19 +1560,19 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D47">
         <v>1703.86</v>
       </c>
       <c r="E47">
-        <v>1470.28</v>
+        <v>1468.99</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G47">
         <v>0.79</v>
@@ -1578,10 +1584,10 @@
         <v>920.6</v>
       </c>
       <c r="J47">
-        <v>1097.55</v>
+        <v>1097</v>
       </c>
       <c r="K47">
-        <v>37.26</v>
+        <v>37.25</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1589,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C48">
         <v>3333.57</v>
@@ -1601,13 +1607,13 @@
         <v>1621.65</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J48">
-        <v>1163.06</v>
+        <v>1162.58</v>
       </c>
       <c r="K48">
-        <v>38.69</v>
+        <v>38.68</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1615,13 +1621,13 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>1742.46</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1629,7 +1635,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50">
         <v>3333.57</v>
@@ -1641,7 +1647,7 @@
         <v>1214.65</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G50">
         <v>1.66</v>
@@ -1653,10 +1659,10 @@
         <v>1703.05</v>
       </c>
       <c r="J50">
-        <v>1168.8</v>
+        <v>1168.37</v>
       </c>
       <c r="K50">
-        <v>38.44</v>
+        <v>38.43</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1664,13 +1670,13 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D51">
         <v>2211.75</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1678,13 +1684,13 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52">
         <v>2249.59</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1692,7 +1698,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
         <v>3333.57</v>
@@ -1704,13 +1710,13 @@
         <v>1214.65</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J53">
-        <v>1173.38</v>
+        <v>1173</v>
       </c>
       <c r="K53">
-        <v>38.24</v>
+        <v>38.23</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1718,13 +1724,13 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>2211.75</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1732,13 +1738,64 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>2249.59</v>
       </c>
       <c r="F55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>2278.56</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56">
+        <v>1.82</v>
+      </c>
+      <c r="H56">
+        <v>51.83</v>
+      </c>
+      <c r="I56">
+        <v>1727.66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
         <v>60</v>
+      </c>
+      <c r="D57">
+        <v>2180.9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <v>2262.34</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>347.43</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.82</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1154.86</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>2087.86</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2148.43</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>2202.86</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1933.57</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>1753.71</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1426.86</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1220.57</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>946.14</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>873.71</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>744.29</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>602.14</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>565.86</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>524.14</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>748.86</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>786.29</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>922</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>1140.43</v>
@@ -987,7 +993,7 @@
         <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>1038.43</v>
@@ -1007,7 +1013,7 @@
         <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>1007.43</v>
@@ -1027,7 +1033,7 @@
         <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>973.4299999999999</v>
@@ -1047,7 +1053,7 @@
         <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>894.5700000000001</v>
@@ -1067,7 +1073,7 @@
         <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>846.4299999999999</v>
@@ -1087,7 +1093,7 @@
         <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>733.14</v>
@@ -1107,7 +1113,7 @@
         <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>797.86</v>
@@ -1127,7 +1133,7 @@
         <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>766.4299999999999</v>
@@ -1147,7 +1153,7 @@
         <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>702.14</v>
@@ -1167,7 +1173,7 @@
         <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>714.29</v>
@@ -1187,7 +1193,7 @@
         <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>717.4299999999999</v>
@@ -1207,7 +1213,7 @@
         <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>821.5700000000001</v>
@@ -1227,7 +1233,7 @@
         <v>14.19</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>819</v>
@@ -1247,7 +1253,7 @@
         <v>87.53</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>994.86</v>
@@ -1267,7 +1273,7 @@
         <v>166.65</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>1087.29</v>
@@ -1287,7 +1293,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>1466.29</v>
@@ -1307,7 +1313,7 @@
         <v>641.61</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>1447.14</v>
@@ -1327,7 +1333,7 @@
         <v>469.44</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>2150.29</v>
@@ -1347,7 +1353,7 @@
         <v>1194.89</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>2383.14</v>
@@ -1367,7 +1373,7 @@
         <v>923.1799999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>2607.86</v>
@@ -1387,7 +1393,7 @@
         <v>1241.97</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1395,7 +1401,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>2243.29</v>
@@ -1407,7 +1413,7 @@
         <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J41">
         <v>648.95</v>
@@ -1421,7 +1427,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>2604.14</v>
@@ -1433,7 +1439,7 @@
         <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J42">
         <v>769.59</v>
@@ -1447,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>3172.86</v>
@@ -1459,7 +1465,7 @@
         <v>1244.64</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J43">
         <v>927.9400000000001</v>
@@ -1473,7 +1479,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44">
         <v>2604.14</v>
@@ -1485,7 +1491,7 @@
         <v>886.46</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G44">
         <v>1.51</v>
@@ -1508,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45">
         <v>3172.86</v>
@@ -1520,7 +1526,7 @@
         <v>1249.97</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J45">
         <v>984.05</v>
@@ -1534,25 +1540,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D46">
         <v>2043.79</v>
       </c>
       <c r="E46">
-        <v>1289.78</v>
+        <v>1291.49</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J46">
-        <v>1035</v>
+        <v>1035.29</v>
       </c>
       <c r="K46">
-        <v>35.74</v>
+        <v>35.75</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1560,7 +1566,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>3172.86</v>
@@ -1572,7 +1578,7 @@
         <v>1468.99</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G47">
         <v>0.79</v>
@@ -1584,10 +1590,10 @@
         <v>920.6</v>
       </c>
       <c r="J47">
-        <v>1097</v>
+        <v>1097.25</v>
       </c>
       <c r="K47">
-        <v>37.25</v>
+        <v>37.26</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1595,22 +1601,22 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C48">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D48">
         <v>1711.93</v>
       </c>
       <c r="E48">
-        <v>1621.65</v>
+        <v>1623.36</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J48">
-        <v>1162.58</v>
+        <v>1163.01</v>
       </c>
       <c r="K48">
         <v>38.68</v>
@@ -1621,13 +1627,25 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>3085.57</v>
       </c>
       <c r="D49">
         <v>1742.46</v>
       </c>
+      <c r="E49">
+        <v>1343.11</v>
+      </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J49">
+        <v>1183.02</v>
+      </c>
+      <c r="K49">
+        <v>39.22</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1635,19 +1653,19 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C50">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D50">
         <v>2118.92</v>
       </c>
       <c r="E50">
-        <v>1214.65</v>
+        <v>1216.36</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G50">
         <v>1.66</v>
@@ -1659,10 +1677,10 @@
         <v>1703.05</v>
       </c>
       <c r="J50">
-        <v>1168.37</v>
+        <v>1186.36</v>
       </c>
       <c r="K50">
-        <v>38.43</v>
+        <v>38.95</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1670,13 +1688,25 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>3085.57</v>
       </c>
       <c r="D51">
         <v>2211.75</v>
       </c>
+      <c r="E51">
+        <v>873.8200000000001</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>1157.94</v>
+      </c>
+      <c r="K51">
+        <v>37.98</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1684,13 +1714,25 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C52">
+        <v>3141</v>
       </c>
       <c r="D52">
         <v>2249.59</v>
       </c>
+      <c r="E52">
+        <v>891.41</v>
+      </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J52">
+        <v>1135.73</v>
+      </c>
+      <c r="K52">
+        <v>37.18</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1698,25 +1740,25 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D53">
         <v>2118.92</v>
       </c>
       <c r="E53">
-        <v>1214.65</v>
+        <v>1216.36</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J53">
-        <v>1173</v>
+        <v>1141.94</v>
       </c>
       <c r="K53">
-        <v>38.23</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1724,13 +1766,25 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C54">
+        <v>3085.57</v>
       </c>
       <c r="D54">
         <v>2211.75</v>
       </c>
+      <c r="E54">
+        <v>873.8200000000001</v>
+      </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J54">
+        <v>1122.78</v>
+      </c>
+      <c r="K54">
+        <v>36.5</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1738,13 +1792,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C55">
+        <v>3141</v>
       </c>
       <c r="D55">
         <v>2249.59</v>
       </c>
+      <c r="E55">
+        <v>891.41</v>
+      </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J55">
+        <v>1107.36</v>
+      </c>
+      <c r="K55">
+        <v>35.96</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1752,13 +1818,19 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>3085.57</v>
       </c>
       <c r="D56">
         <v>2278.56</v>
       </c>
+      <c r="E56">
+        <v>807.01</v>
+      </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G56">
         <v>1.82</v>
@@ -1768,6 +1840,12 @@
       </c>
       <c r="I56">
         <v>1727.66</v>
+      </c>
+      <c r="J56">
+        <v>1088.59</v>
+      </c>
+      <c r="K56">
+        <v>35.34</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1775,13 +1853,25 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>3141</v>
       </c>
       <c r="D57">
         <v>2180.9</v>
       </c>
+      <c r="E57">
+        <v>960.1</v>
+      </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J57">
+        <v>1081.03</v>
+      </c>
+      <c r="K57">
+        <v>35.06</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1789,13 +1879,142 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D58">
         <v>2262.34</v>
       </c>
       <c r="F58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>3085.57</v>
+      </c>
+      <c r="D59">
+        <v>2278.56</v>
+      </c>
+      <c r="E59">
+        <v>807.01</v>
+      </c>
+      <c r="F59" t="s">
+        <v>64</v>
+      </c>
+      <c r="J59">
+        <v>1065.81</v>
+      </c>
+      <c r="K59">
+        <v>34.57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>3141</v>
+      </c>
+      <c r="D60">
+        <v>2180.9</v>
+      </c>
+      <c r="E60">
+        <v>960.1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>64</v>
+      </c>
+      <c r="J60">
+        <v>1060.24</v>
+      </c>
+      <c r="K60">
+        <v>34.36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" t="s">
         <v>62</v>
+      </c>
+      <c r="D61">
+        <v>2262.34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>3141</v>
+      </c>
+      <c r="D62">
+        <v>2140.34</v>
+      </c>
+      <c r="E62">
+        <v>1000.66</v>
+      </c>
+      <c r="F62" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62">
+        <v>2.16</v>
+      </c>
+      <c r="H62">
+        <v>33.75</v>
+      </c>
+      <c r="I62">
+        <v>1041.38</v>
+      </c>
+      <c r="J62">
+        <v>1057.26</v>
+      </c>
+      <c r="K62">
+        <v>34.23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <v>2289.56</v>
+      </c>
+      <c r="F63" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <v>2800.59</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>347.43</v>
@@ -624,7 +630,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>0.82</v>
@@ -641,7 +647,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1154.86</v>
@@ -653,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -661,7 +667,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>2087.86</v>
@@ -673,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,7 +687,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>2148.43</v>
@@ -693,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -701,7 +707,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>2202.86</v>
@@ -713,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -721,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>1933.57</v>
@@ -733,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -741,7 +747,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1753.71</v>
@@ -753,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -761,7 +767,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>1426.86</v>
@@ -773,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,7 +787,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>1220.57</v>
@@ -793,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -801,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>946.14</v>
@@ -813,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>873.71</v>
@@ -833,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -841,7 +847,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>744.29</v>
@@ -853,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -861,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>602.14</v>
@@ -873,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -881,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>565.86</v>
@@ -893,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -901,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>524.14</v>
@@ -913,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -921,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>748.86</v>
@@ -933,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -941,7 +947,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>786.29</v>
@@ -953,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -961,7 +967,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>922</v>
@@ -973,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -981,7 +987,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>1140.43</v>
@@ -993,7 +999,7 @@
         <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>1038.43</v>
@@ -1013,7 +1019,7 @@
         <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1021,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>1007.43</v>
@@ -1033,7 +1039,7 @@
         <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1041,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>973.4299999999999</v>
@@ -1053,7 +1059,7 @@
         <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1061,7 +1067,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>894.5700000000001</v>
@@ -1073,7 +1079,7 @@
         <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1081,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>846.4299999999999</v>
@@ -1093,7 +1099,7 @@
         <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1101,7 +1107,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>733.14</v>
@@ -1113,7 +1119,7 @@
         <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1121,7 +1127,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>797.86</v>
@@ -1133,7 +1139,7 @@
         <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1141,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>766.4299999999999</v>
@@ -1153,7 +1159,7 @@
         <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1161,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>702.14</v>
@@ -1173,7 +1179,7 @@
         <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1181,7 +1187,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>714.29</v>
@@ -1193,7 +1199,7 @@
         <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>717.4299999999999</v>
@@ -1213,7 +1219,7 @@
         <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1221,7 +1227,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>821.5700000000001</v>
@@ -1233,7 +1239,7 @@
         <v>14.19</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1241,7 +1247,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>819</v>
@@ -1253,7 +1259,7 @@
         <v>87.53</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1261,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>994.86</v>
@@ -1273,7 +1279,7 @@
         <v>166.65</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1281,7 +1287,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>1087.29</v>
@@ -1293,7 +1299,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1301,7 +1307,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>1466.29</v>
@@ -1313,7 +1319,7 @@
         <v>641.61</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1321,7 +1327,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>1447.14</v>
@@ -1333,7 +1339,7 @@
         <v>469.44</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2150.29</v>
@@ -1353,7 +1359,7 @@
         <v>1194.89</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1361,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>2383.14</v>
@@ -1373,7 +1379,7 @@
         <v>923.1799999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1381,7 +1387,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>2607.86</v>
@@ -1393,7 +1399,7 @@
         <v>1241.97</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
         <v>2243.29</v>
@@ -1413,7 +1419,7 @@
         <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J41">
         <v>648.95</v>
@@ -1427,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42">
         <v>2604.14</v>
@@ -1439,7 +1445,7 @@
         <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J42">
         <v>769.59</v>
@@ -1453,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>3172.86</v>
@@ -1465,7 +1471,7 @@
         <v>1244.64</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J43">
         <v>927.9400000000001</v>
@@ -1479,7 +1485,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44">
         <v>2604.14</v>
@@ -1491,7 +1497,7 @@
         <v>886.46</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G44">
         <v>1.51</v>
@@ -1514,7 +1520,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>3172.86</v>
@@ -1526,7 +1532,7 @@
         <v>1249.97</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J45">
         <v>984.05</v>
@@ -1540,7 +1546,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1552,7 +1558,7 @@
         <v>1291.49</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J46">
         <v>1035.29</v>
@@ -1566,7 +1572,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>3172.86</v>
@@ -1578,7 +1584,7 @@
         <v>1468.99</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G47">
         <v>0.79</v>
@@ -1601,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
         <v>3335.29</v>
@@ -1613,7 +1619,7 @@
         <v>1623.36</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J48">
         <v>1163.01</v>
@@ -1627,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
         <v>3085.57</v>
@@ -1639,7 +1645,7 @@
         <v>1343.11</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J49">
         <v>1183.02</v>
@@ -1653,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C50">
         <v>3335.29</v>
@@ -1665,7 +1671,7 @@
         <v>1216.36</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G50">
         <v>1.66</v>
@@ -1688,7 +1694,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1700,7 +1706,7 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J51">
         <v>1157.94</v>
@@ -1714,25 +1720,25 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D52">
         <v>2249.59</v>
       </c>
       <c r="E52">
-        <v>891.41</v>
+        <v>900.98</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J52">
-        <v>1135.73</v>
+        <v>1136.53</v>
       </c>
       <c r="K52">
-        <v>37.18</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1740,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>3335.29</v>
@@ -1752,13 +1758,13 @@
         <v>1216.36</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J53">
-        <v>1141.94</v>
+        <v>1142.67</v>
       </c>
       <c r="K53">
-        <v>37.13</v>
+        <v>37.14</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1766,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1778,13 +1784,13 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J54">
-        <v>1122.78</v>
+        <v>1123.47</v>
       </c>
       <c r="K54">
-        <v>36.5</v>
+        <v>36.51</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1792,25 +1798,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D55">
         <v>2249.59</v>
       </c>
       <c r="E55">
-        <v>891.41</v>
+        <v>900.98</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J55">
-        <v>1107.36</v>
+        <v>1108.64</v>
       </c>
       <c r="K55">
-        <v>35.96</v>
+        <v>35.98</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1818,7 +1824,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1830,7 +1836,7 @@
         <v>807.01</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G56">
         <v>1.82</v>
@@ -1842,10 +1848,10 @@
         <v>1727.66</v>
       </c>
       <c r="J56">
-        <v>1088.59</v>
+        <v>1089.78</v>
       </c>
       <c r="K56">
-        <v>35.34</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1853,25 +1859,25 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D57">
         <v>2180.9</v>
       </c>
       <c r="E57">
-        <v>960.1</v>
+        <v>969.67</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J57">
-        <v>1081.03</v>
+        <v>1082.72</v>
       </c>
       <c r="K57">
-        <v>35.06</v>
+        <v>35.1</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1879,13 +1885,13 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D58">
         <v>2262.34</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1893,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>3085.57</v>
@@ -1905,13 +1911,13 @@
         <v>807.01</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J59">
-        <v>1065.81</v>
+        <v>1067.4</v>
       </c>
       <c r="K59">
-        <v>34.57</v>
+        <v>34.6</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1919,25 +1925,25 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D60">
         <v>2180.9</v>
       </c>
       <c r="E60">
-        <v>960.1</v>
+        <v>969.67</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J60">
-        <v>1060.24</v>
+        <v>1062.26</v>
       </c>
       <c r="K60">
-        <v>34.36</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1945,13 +1951,13 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D61">
         <v>2262.34</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1959,19 +1965,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D62">
         <v>2140.34</v>
       </c>
       <c r="E62">
-        <v>1000.66</v>
+        <v>1010.23</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G62">
         <v>2.16</v>
@@ -1983,10 +1989,10 @@
         <v>1041.38</v>
       </c>
       <c r="J62">
-        <v>1057.26</v>
+        <v>1059.66</v>
       </c>
       <c r="K62">
-        <v>34.23</v>
+        <v>34.29</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1994,13 +2000,13 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>2289.56</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2008,13 +2014,121 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D64">
         <v>2800.59</v>
       </c>
       <c r="F64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <v>3150.57</v>
+      </c>
+      <c r="D65">
+        <v>2140.28</v>
+      </c>
+      <c r="E65">
+        <v>1010.29</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65">
+        <v>1041.25</v>
+      </c>
+      <c r="J65">
+        <v>1057.31</v>
+      </c>
+      <c r="K65">
+        <v>34.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66">
+        <v>2289.54</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
         <v>64</v>
+      </c>
+      <c r="D67">
+        <v>2800.59</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68">
+        <v>2787.19</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68">
+        <v>1.23</v>
+      </c>
+      <c r="H68">
+        <v>35.39</v>
+      </c>
+      <c r="I68">
+        <v>1114.93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69">
+        <v>2567.33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>2376.33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="69">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -212,6 +215,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -572,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,7 +624,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>347.43</v>
@@ -630,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2">
         <v>0.82</v>
@@ -647,7 +653,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1154.86</v>
@@ -659,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -667,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>2087.86</v>
@@ -679,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>2148.43</v>
@@ -699,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -707,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>2202.86</v>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,7 +733,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1933.57</v>
@@ -739,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1753.71</v>
@@ -759,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -767,7 +773,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>1426.86</v>
@@ -779,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -787,7 +793,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>1220.57</v>
@@ -799,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -807,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>946.14</v>
@@ -819,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>873.71</v>
@@ -839,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -847,7 +853,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>744.29</v>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -867,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>602.14</v>
@@ -879,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -887,7 +893,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>565.86</v>
@@ -899,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -907,7 +913,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>524.14</v>
@@ -919,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -927,7 +933,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>748.86</v>
@@ -939,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -947,7 +953,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>786.29</v>
@@ -959,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -967,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>922</v>
@@ -979,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -987,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>1140.43</v>
@@ -999,7 +1005,7 @@
         <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1007,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>1038.43</v>
@@ -1019,7 +1025,7 @@
         <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1027,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>1007.43</v>
@@ -1039,7 +1045,7 @@
         <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>973.4299999999999</v>
@@ -1059,7 +1065,7 @@
         <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1067,7 +1073,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>894.5700000000001</v>
@@ -1079,7 +1085,7 @@
         <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1087,7 +1093,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>846.4299999999999</v>
@@ -1099,7 +1105,7 @@
         <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1107,7 +1113,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>733.14</v>
@@ -1119,7 +1125,7 @@
         <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1127,7 +1133,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>797.86</v>
@@ -1139,7 +1145,7 @@
         <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1147,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>766.4299999999999</v>
@@ -1159,7 +1165,7 @@
         <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1167,7 +1173,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>702.14</v>
@@ -1179,7 +1185,7 @@
         <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>714.29</v>
@@ -1199,7 +1205,7 @@
         <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1207,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>717.4299999999999</v>
@@ -1219,7 +1225,7 @@
         <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1227,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>821.5700000000001</v>
@@ -1239,7 +1245,7 @@
         <v>14.19</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1247,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>819</v>
@@ -1259,7 +1265,7 @@
         <v>87.53</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1267,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>994.86</v>
@@ -1279,7 +1285,7 @@
         <v>166.65</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1287,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>1087.29</v>
@@ -1299,7 +1305,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1307,7 +1313,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>1466.29</v>
@@ -1319,7 +1325,7 @@
         <v>641.61</v>
       </c>
       <c r="F36" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>1447.14</v>
@@ -1339,7 +1345,7 @@
         <v>469.44</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1347,7 +1353,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
         <v>2150.29</v>
@@ -1359,7 +1365,7 @@
         <v>1194.89</v>
       </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1367,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
         <v>2383.14</v>
@@ -1379,7 +1385,7 @@
         <v>923.1799999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1387,7 +1393,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
         <v>2607.86</v>
@@ -1399,7 +1405,7 @@
         <v>1241.97</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1407,7 +1413,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
         <v>2243.29</v>
@@ -1419,7 +1425,7 @@
         <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J41">
         <v>648.95</v>
@@ -1433,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>2604.14</v>
@@ -1445,7 +1451,7 @@
         <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J42">
         <v>769.59</v>
@@ -1459,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C43">
         <v>3172.86</v>
@@ -1471,7 +1477,7 @@
         <v>1244.64</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J43">
         <v>927.9400000000001</v>
@@ -1485,7 +1491,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>2604.14</v>
@@ -1497,7 +1503,7 @@
         <v>886.46</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G44">
         <v>1.51</v>
@@ -1520,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>3172.86</v>
@@ -1532,7 +1538,7 @@
         <v>1249.97</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J45">
         <v>984.05</v>
@@ -1546,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1558,7 +1564,7 @@
         <v>1291.49</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J46">
         <v>1035.29</v>
@@ -1572,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47">
         <v>3172.86</v>
@@ -1584,7 +1590,7 @@
         <v>1468.99</v>
       </c>
       <c r="F47" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G47">
         <v>0.79</v>
@@ -1607,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48">
         <v>3335.29</v>
@@ -1619,7 +1625,7 @@
         <v>1623.36</v>
       </c>
       <c r="F48" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J48">
         <v>1163.01</v>
@@ -1633,7 +1639,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>3085.57</v>
@@ -1645,7 +1651,7 @@
         <v>1343.11</v>
       </c>
       <c r="F49" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J49">
         <v>1183.02</v>
@@ -1659,7 +1665,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>3335.29</v>
@@ -1671,7 +1677,7 @@
         <v>1216.36</v>
       </c>
       <c r="F50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G50">
         <v>1.66</v>
@@ -1694,7 +1700,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1706,7 +1712,7 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J51">
         <v>1157.94</v>
@@ -1720,25 +1726,25 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C52">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D52">
         <v>2249.59</v>
       </c>
       <c r="E52">
-        <v>900.98</v>
+        <v>880.7</v>
       </c>
       <c r="F52" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J52">
-        <v>1136.53</v>
+        <v>1134.84</v>
       </c>
       <c r="K52">
-        <v>37.2</v>
+        <v>37.16</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1746,7 +1752,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53">
         <v>3335.29</v>
@@ -1758,13 +1764,13 @@
         <v>1216.36</v>
       </c>
       <c r="F53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J53">
-        <v>1142.67</v>
+        <v>1141.11</v>
       </c>
       <c r="K53">
-        <v>37.14</v>
+        <v>37.11</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1772,7 +1778,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1784,13 +1790,13 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J54">
-        <v>1123.47</v>
+        <v>1122.02</v>
       </c>
       <c r="K54">
-        <v>36.51</v>
+        <v>36.48</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1798,25 +1804,25 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C55">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D55">
         <v>2249.59</v>
       </c>
       <c r="E55">
-        <v>900.98</v>
+        <v>880.7</v>
       </c>
       <c r="F55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J55">
-        <v>1108.64</v>
+        <v>1105.93</v>
       </c>
       <c r="K55">
-        <v>35.98</v>
+        <v>35.92</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1824,7 +1830,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1836,7 +1842,7 @@
         <v>807.01</v>
       </c>
       <c r="F56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G56">
         <v>1.82</v>
@@ -1848,10 +1854,10 @@
         <v>1727.66</v>
       </c>
       <c r="J56">
-        <v>1089.78</v>
+        <v>1087.25</v>
       </c>
       <c r="K56">
-        <v>35.37</v>
+        <v>35.31</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1859,25 +1865,25 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C57">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D57">
         <v>2180.9</v>
       </c>
       <c r="E57">
-        <v>969.67</v>
+        <v>949.39</v>
       </c>
       <c r="F57" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J57">
-        <v>1082.72</v>
+        <v>1079.14</v>
       </c>
       <c r="K57">
-        <v>35.1</v>
+        <v>35.02</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1885,13 +1891,25 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C58">
+        <v>2986.71</v>
       </c>
       <c r="D58">
         <v>2262.34</v>
       </c>
+      <c r="E58">
+        <v>724.37</v>
+      </c>
       <c r="F58" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J58">
+        <v>1059.43</v>
+      </c>
+      <c r="K58">
+        <v>34.42</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1899,7 +1917,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>3085.57</v>
@@ -1911,13 +1929,13 @@
         <v>807.01</v>
       </c>
       <c r="F59" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J59">
-        <v>1067.4</v>
+        <v>1046.14</v>
       </c>
       <c r="K59">
-        <v>34.6</v>
+        <v>33.99</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1925,25 +1943,25 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D60">
         <v>2180.9</v>
       </c>
       <c r="E60">
-        <v>969.67</v>
+        <v>949.39</v>
       </c>
       <c r="F60" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J60">
-        <v>1062.26</v>
+        <v>1041.31</v>
       </c>
       <c r="K60">
-        <v>34.4</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1951,13 +1969,25 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C61">
+        <v>2986.71</v>
       </c>
       <c r="D61">
         <v>2262.34</v>
       </c>
+      <c r="E61">
+        <v>724.37</v>
+      </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J61">
+        <v>1026.21</v>
+      </c>
+      <c r="K61">
+        <v>33.35</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1965,19 +1995,19 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D62">
         <v>2140.34</v>
       </c>
       <c r="E62">
-        <v>1010.23</v>
+        <v>989.95</v>
       </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G62">
         <v>2.16</v>
@@ -1989,10 +2019,10 @@
         <v>1041.38</v>
       </c>
       <c r="J62">
-        <v>1059.66</v>
+        <v>1024.57</v>
       </c>
       <c r="K62">
-        <v>34.29</v>
+        <v>33.27</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2000,13 +2030,25 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>2986.71</v>
       </c>
       <c r="D63">
         <v>2289.56</v>
       </c>
+      <c r="E63">
+        <v>697.16</v>
+      </c>
       <c r="F63" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J63">
+        <v>1010.33</v>
+      </c>
+      <c r="K63">
+        <v>32.84</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2014,13 +2056,25 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>2487.29</v>
       </c>
       <c r="D64">
         <v>2800.59</v>
       </c>
+      <c r="E64">
+        <v>313.3</v>
+      </c>
       <c r="F64" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J64">
+        <v>981.29</v>
+      </c>
+      <c r="K64">
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2028,28 +2082,28 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D65">
         <v>2140.28</v>
       </c>
       <c r="E65">
-        <v>1010.29</v>
+        <v>990.01</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I65">
         <v>1041.25</v>
       </c>
       <c r="J65">
-        <v>1057.31</v>
+        <v>981.64</v>
       </c>
       <c r="K65">
-        <v>34.18</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2057,13 +2111,25 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>2986.71</v>
       </c>
       <c r="D66">
         <v>2289.54</v>
       </c>
+      <c r="E66">
+        <v>697.1799999999999</v>
+      </c>
       <c r="F66" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J66">
+        <v>970.7</v>
+      </c>
+      <c r="K66">
+        <v>31.65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2071,13 +2137,25 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>2487.29</v>
       </c>
       <c r="D67">
         <v>2800.59</v>
       </c>
+      <c r="E67">
+        <v>313.3</v>
+      </c>
       <c r="F67" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J67">
+        <v>946.35</v>
+      </c>
+      <c r="K67">
+        <v>30.94</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2085,13 +2163,19 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C68">
+        <v>2986.71</v>
       </c>
       <c r="D68">
         <v>2787.19</v>
       </c>
+      <c r="E68">
+        <v>199.52</v>
+      </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G68">
         <v>1.23</v>
@@ -2101,6 +2185,12 @@
       </c>
       <c r="I68">
         <v>1114.93</v>
+      </c>
+      <c r="J68">
+        <v>919.6799999999999</v>
+      </c>
+      <c r="K68">
+        <v>30.08</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2108,13 +2198,25 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>2487.29</v>
       </c>
       <c r="D69">
         <v>2567.33</v>
       </c>
+      <c r="E69">
+        <v>80.05</v>
+      </c>
       <c r="F69" t="s">
-        <v>66</v>
+        <v>68</v>
+      </c>
+      <c r="J69">
+        <v>890.72</v>
+      </c>
+      <c r="K69">
+        <v>29.15</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2122,13 +2224,178 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="C70">
+        <v>1906.71</v>
       </c>
       <c r="D70">
         <v>2376.33</v>
       </c>
+      <c r="E70">
+        <v>469.61</v>
+      </c>
       <c r="F70" t="s">
+        <v>68</v>
+      </c>
+      <c r="J70">
+        <v>876.6900000000001</v>
+      </c>
+      <c r="K70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71">
+        <v>2986.71</v>
+      </c>
+      <c r="D71">
+        <v>2787.19</v>
+      </c>
+      <c r="E71">
+        <v>199.52</v>
+      </c>
+      <c r="F71" t="s">
+        <v>68</v>
+      </c>
+      <c r="J71">
+        <v>854.84</v>
+      </c>
+      <c r="K71">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72">
+        <v>2487.29</v>
+      </c>
+      <c r="D72">
+        <v>2567.33</v>
+      </c>
+      <c r="E72">
+        <v>80.05</v>
+      </c>
+      <c r="F72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72">
+        <v>830.63</v>
+      </c>
+      <c r="K72">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
         <v>66</v>
+      </c>
+      <c r="C73">
+        <v>1906.71</v>
+      </c>
+      <c r="D73">
+        <v>2376.33</v>
+      </c>
+      <c r="E73">
+        <v>469.61</v>
+      </c>
+      <c r="F73" t="s">
+        <v>68</v>
+      </c>
+      <c r="J73">
+        <v>819.6900000000001</v>
+      </c>
+      <c r="K73">
+        <v>27.41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74">
+        <v>2487.29</v>
+      </c>
+      <c r="D74">
+        <v>2813.53</v>
+      </c>
+      <c r="E74">
+        <v>326.25</v>
+      </c>
+      <c r="F74" t="s">
+        <v>68</v>
+      </c>
+      <c r="G74">
+        <v>1.18</v>
+      </c>
+      <c r="H74">
+        <v>16.33</v>
+      </c>
+      <c r="I74">
+        <v>495.71</v>
+      </c>
+      <c r="J74">
+        <v>805.1799999999999</v>
+      </c>
+      <c r="K74">
+        <v>26.99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75">
+        <v>1906.71</v>
+      </c>
+      <c r="D75">
+        <v>2834.51</v>
+      </c>
+      <c r="E75">
+        <v>927.8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>68</v>
+      </c>
+      <c r="J75">
+        <v>808.6799999999999</v>
+      </c>
+      <c r="K75">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76">
+        <v>3004.77</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>22 Mar -- 28 Mar 2020</t>
   </si>
   <si>
@@ -218,6 +221,12 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -578,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +633,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>347.43</v>
@@ -636,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2">
         <v>0.82</v>
@@ -653,7 +662,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1154.86</v>
@@ -665,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>2087.86</v>
@@ -685,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>2148.43</v>
@@ -705,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +722,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>2202.86</v>
@@ -725,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +742,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>1933.57</v>
@@ -745,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1753.71</v>
@@ -765,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>1426.86</v>
@@ -785,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +802,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>1220.57</v>
@@ -805,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +822,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>946.14</v>
@@ -825,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>873.71</v>
@@ -845,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>744.29</v>
@@ -865,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>602.14</v>
@@ -885,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>565.86</v>
@@ -905,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>524.14</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>748.86</v>
@@ -945,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>786.29</v>
@@ -965,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>922</v>
@@ -985,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +1002,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>1140.43</v>
@@ -1005,7 +1014,7 @@
         <v>419.39</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1022,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>1038.43</v>
@@ -1025,7 +1034,7 @@
         <v>260.33</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>1007.43</v>
@@ -1045,7 +1054,7 @@
         <v>41.59</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>973.4299999999999</v>
@@ -1065,7 +1074,7 @@
         <v>198.05</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>894.5700000000001</v>
@@ -1085,7 +1094,7 @@
         <v>73.66</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1102,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>846.4299999999999</v>
@@ -1105,7 +1114,7 @@
         <v>135.66</v>
       </c>
       <c r="F25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>733.14</v>
@@ -1125,7 +1134,7 @@
         <v>244.98</v>
       </c>
       <c r="F26" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>797.86</v>
@@ -1145,7 +1154,7 @@
         <v>104.37</v>
       </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1162,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>766.4299999999999</v>
@@ -1165,7 +1174,7 @@
         <v>31.37</v>
       </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>702.14</v>
@@ -1185,7 +1194,7 @@
         <v>103.66</v>
       </c>
       <c r="F29" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1202,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>714.29</v>
@@ -1205,7 +1214,7 @@
         <v>65.86</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>717.4299999999999</v>
@@ -1225,7 +1234,7 @@
         <v>95.52</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>821.5700000000001</v>
@@ -1245,7 +1254,7 @@
         <v>14.19</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>819</v>
@@ -1265,7 +1274,7 @@
         <v>87.53</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1282,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>994.86</v>
@@ -1285,7 +1294,7 @@
         <v>166.65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>1087.29</v>
@@ -1305,7 +1314,7 @@
         <v>71.43000000000001</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1322,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>1466.29</v>
@@ -1325,7 +1334,7 @@
         <v>641.61</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1342,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>1447.14</v>
@@ -1345,7 +1354,7 @@
         <v>469.44</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1362,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>2150.29</v>
@@ -1365,7 +1374,7 @@
         <v>1194.89</v>
       </c>
       <c r="F38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
         <v>2383.14</v>
@@ -1385,7 +1394,7 @@
         <v>923.1799999999999</v>
       </c>
       <c r="F39" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1402,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>2607.86</v>
@@ -1405,7 +1414,7 @@
         <v>1241.97</v>
       </c>
       <c r="F40" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1413,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>2243.29</v>
@@ -1425,7 +1434,7 @@
         <v>648.95</v>
       </c>
       <c r="F41" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J41">
         <v>648.95</v>
@@ -1439,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>2604.14</v>
@@ -1451,7 +1460,7 @@
         <v>890.23</v>
       </c>
       <c r="F42" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J42">
         <v>769.59</v>
@@ -1465,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>3172.86</v>
@@ -1477,7 +1486,7 @@
         <v>1244.64</v>
       </c>
       <c r="F43" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J43">
         <v>927.9400000000001</v>
@@ -1491,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44">
         <v>2604.14</v>
@@ -1503,7 +1512,7 @@
         <v>886.46</v>
       </c>
       <c r="F44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G44">
         <v>1.51</v>
@@ -1526,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45">
         <v>3172.86</v>
@@ -1538,7 +1547,7 @@
         <v>1249.97</v>
       </c>
       <c r="F45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J45">
         <v>984.05</v>
@@ -1552,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>3335.29</v>
@@ -1564,7 +1573,7 @@
         <v>1291.49</v>
       </c>
       <c r="F46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J46">
         <v>1035.29</v>
@@ -1578,7 +1587,7 @@
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47">
         <v>3172.86</v>
@@ -1590,7 +1599,7 @@
         <v>1468.99</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G47">
         <v>0.79</v>
@@ -1613,7 +1622,7 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>3335.29</v>
@@ -1625,7 +1634,7 @@
         <v>1623.36</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J48">
         <v>1163.01</v>
@@ -1639,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49">
         <v>3085.57</v>
@@ -1651,7 +1660,7 @@
         <v>1343.11</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J49">
         <v>1183.02</v>
@@ -1665,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>3335.29</v>
@@ -1677,7 +1686,7 @@
         <v>1216.36</v>
       </c>
       <c r="F50" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G50">
         <v>1.66</v>
@@ -1700,7 +1709,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51">
         <v>3085.57</v>
@@ -1712,7 +1721,7 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J51">
         <v>1157.94</v>
@@ -1726,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>3130.29</v>
@@ -1738,7 +1747,7 @@
         <v>880.7</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J52">
         <v>1134.84</v>
@@ -1752,7 +1761,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C53">
         <v>3335.29</v>
@@ -1764,7 +1773,7 @@
         <v>1216.36</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J53">
         <v>1141.11</v>
@@ -1778,7 +1787,7 @@
         <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C54">
         <v>3085.57</v>
@@ -1790,7 +1799,7 @@
         <v>873.8200000000001</v>
       </c>
       <c r="F54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J54">
         <v>1122.02</v>
@@ -1804,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C55">
         <v>3130.29</v>
@@ -1816,7 +1825,7 @@
         <v>880.7</v>
       </c>
       <c r="F55" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J55">
         <v>1105.93</v>
@@ -1830,7 +1839,7 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>3085.57</v>
@@ -1842,7 +1851,7 @@
         <v>807.01</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G56">
         <v>1.82</v>
@@ -1865,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57">
         <v>3130.29</v>
@@ -1877,7 +1886,7 @@
         <v>949.39</v>
       </c>
       <c r="F57" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J57">
         <v>1079.14</v>
@@ -1891,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>2986.71</v>
@@ -1903,7 +1912,7 @@
         <v>724.37</v>
       </c>
       <c r="F58" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J58">
         <v>1059.43</v>
@@ -1917,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59">
         <v>3085.57</v>
@@ -1929,7 +1938,7 @@
         <v>807.01</v>
       </c>
       <c r="F59" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J59">
         <v>1046.14</v>
@@ -1943,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>3130.29</v>
@@ -1955,7 +1964,7 @@
         <v>949.39</v>
       </c>
       <c r="F60" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J60">
         <v>1041.31</v>
@@ -1969,7 +1978,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>2986.71</v>
@@ -1981,7 +1990,7 @@
         <v>724.37</v>
       </c>
       <c r="F61" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J61">
         <v>1026.21</v>
@@ -1995,7 +2004,7 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>3130.29</v>
@@ -2007,7 +2016,7 @@
         <v>989.95</v>
       </c>
       <c r="F62" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G62">
         <v>2.16</v>
@@ -2030,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>2986.71</v>
@@ -2042,7 +2051,7 @@
         <v>697.16</v>
       </c>
       <c r="F63" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J63">
         <v>1010.33</v>
@@ -2056,25 +2065,25 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D64">
         <v>2800.59</v>
       </c>
       <c r="E64">
-        <v>313.3</v>
+        <v>307.3</v>
       </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J64">
-        <v>981.29</v>
+        <v>981.04</v>
       </c>
       <c r="K64">
-        <v>32</v>
+        <v>31.98</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2082,7 +2091,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>3130.29</v>
@@ -2094,16 +2103,16 @@
         <v>990.01</v>
       </c>
       <c r="F65" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I65">
         <v>1041.25</v>
       </c>
       <c r="J65">
-        <v>981.64</v>
+        <v>981.4</v>
       </c>
       <c r="K65">
-        <v>31.98</v>
+        <v>31.97</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2111,7 +2120,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66">
         <v>2986.71</v>
@@ -2123,13 +2132,13 @@
         <v>697.1799999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J66">
-        <v>970.7</v>
+        <v>970.47</v>
       </c>
       <c r="K66">
-        <v>31.65</v>
+        <v>31.64</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2137,25 +2146,25 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D67">
         <v>2800.59</v>
       </c>
       <c r="E67">
-        <v>313.3</v>
+        <v>307.3</v>
       </c>
       <c r="F67" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J67">
-        <v>946.35</v>
+        <v>945.9</v>
       </c>
       <c r="K67">
-        <v>30.94</v>
+        <v>30.92</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2163,7 +2172,7 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>2986.71</v>
@@ -2175,7 +2184,7 @@
         <v>199.52</v>
       </c>
       <c r="F68" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G68">
         <v>1.23</v>
@@ -2187,10 +2196,10 @@
         <v>1114.93</v>
       </c>
       <c r="J68">
-        <v>919.6799999999999</v>
+        <v>919.25</v>
       </c>
       <c r="K68">
-        <v>30.08</v>
+        <v>30.06</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2198,25 +2207,25 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D69">
         <v>2567.33</v>
       </c>
       <c r="E69">
-        <v>80.05</v>
+        <v>74.05</v>
       </c>
       <c r="F69" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J69">
-        <v>890.72</v>
+        <v>890.1</v>
       </c>
       <c r="K69">
-        <v>29.15</v>
+        <v>29.12</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2224,25 +2233,25 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D70">
         <v>2376.33</v>
       </c>
       <c r="E70">
-        <v>469.61</v>
+        <v>525.9</v>
       </c>
       <c r="F70" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J70">
-        <v>876.6900000000001</v>
+        <v>877.96</v>
       </c>
       <c r="K70">
-        <v>29</v>
+        <v>29.1</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2250,7 +2259,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C71">
         <v>2986.71</v>
@@ -2262,13 +2271,13 @@
         <v>199.52</v>
       </c>
       <c r="F71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J71">
-        <v>854.84</v>
+        <v>856.08</v>
       </c>
       <c r="K71">
-        <v>28.28</v>
+        <v>28.38</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2276,25 +2285,25 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C72">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D72">
         <v>2567.33</v>
       </c>
       <c r="E72">
-        <v>80.05</v>
+        <v>74.05</v>
       </c>
       <c r="F72" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J72">
-        <v>830.63</v>
+        <v>831.64</v>
       </c>
       <c r="K72">
-        <v>27.5</v>
+        <v>27.58</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2302,25 +2311,25 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D73">
         <v>2376.33</v>
       </c>
       <c r="E73">
-        <v>469.61</v>
+        <v>525.9</v>
       </c>
       <c r="F73" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J73">
-        <v>819.6900000000001</v>
+        <v>822.37</v>
       </c>
       <c r="K73">
-        <v>27.41</v>
+        <v>27.61</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2328,19 +2337,19 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C74">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D74">
         <v>2813.53</v>
       </c>
       <c r="E74">
-        <v>326.25</v>
+        <v>320.25</v>
       </c>
       <c r="F74" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G74">
         <v>1.18</v>
@@ -2352,10 +2361,10 @@
         <v>495.71</v>
       </c>
       <c r="J74">
-        <v>805.1799999999999</v>
+        <v>807.61</v>
       </c>
       <c r="K74">
-        <v>26.99</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2363,25 +2372,25 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C75">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D75">
         <v>2834.51</v>
       </c>
       <c r="E75">
-        <v>927.8</v>
+        <v>984.08</v>
       </c>
       <c r="F75" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J75">
-        <v>808.6799999999999</v>
+        <v>812.65</v>
       </c>
       <c r="K75">
-        <v>27.61</v>
+        <v>27.92</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2389,13 +2398,64 @@
         <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D76">
         <v>3004.77</v>
       </c>
       <c r="F76" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" t="s">
         <v>68</v>
+      </c>
+      <c r="D77">
+        <v>2889.54</v>
+      </c>
+      <c r="F77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77">
+        <v>0.31</v>
+      </c>
+      <c r="H77">
+        <v>24.86</v>
+      </c>
+      <c r="I77">
+        <v>460.05</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <v>2842.81</v>
+      </c>
+      <c r="F78" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>19</v>
+      </c>
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79">
+        <v>2678.98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
